--- a/_RESULTS/Error_budget/error_budget_area3.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area3.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,17 +379,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>VAR(OK)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>MSPE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Nugget</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Non-expl var of model</t>
+          <t>S_nugget</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VAR(TOTAL)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>VAR(DATA)</t>
         </is>
       </c>
     </row>
@@ -404,13 +414,17 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0.3634610188657926</v>
+      </c>
+      <c r="E2" t="n">
         <v>6.007579774263109</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.872</v>
       </c>
-      <c r="F2" t="n">
-        <v>5.13557977426311</v>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>6.271678887145197</v>
       </c>
     </row>
     <row r="3">
@@ -424,13 +438,17 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
+        <v>0.7088661882899594</v>
+      </c>
+      <c r="E3" t="n">
         <v>5.647059265271208</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1.52</v>
       </c>
-      <c r="F3" t="n">
-        <v>4.127059265271209</v>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>6.271678887145197</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +462,17 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0.9636897536187901</v>
+      </c>
+      <c r="E4" t="n">
         <v>5.436032013309045</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1.946</v>
       </c>
-      <c r="F4" t="n">
-        <v>3.490032013309045</v>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>6.271678887145197</v>
       </c>
     </row>
     <row r="5">
@@ -464,13 +486,17 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1.116632997595095</v>
+      </c>
+      <c r="E5" t="n">
         <v>5.325288225573662</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>2.471</v>
       </c>
-      <c r="F5" t="n">
-        <v>2.854288225573661</v>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>6.271678887145197</v>
       </c>
     </row>
     <row r="6">
@@ -484,13 +510,17 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1.175168753280896</v>
+      </c>
+      <c r="E6" t="n">
         <v>5.282569863103799</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>2.799</v>
       </c>
-      <c r="F6" t="n">
-        <v>2.483569863103799</v>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>6.271678887145197</v>
       </c>
     </row>
     <row r="7">
@@ -504,13 +534,17 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>1.200872345810631</v>
+      </c>
+      <c r="E7" t="n">
         <v>5.283611792198738</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>3.1</v>
       </c>
-      <c r="F7" t="n">
-        <v>2.183611792198738</v>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>6.271678887145197</v>
       </c>
     </row>
     <row r="8">
@@ -524,13 +558,17 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
+        <v>1.233435112180008</v>
+      </c>
+      <c r="E8" t="n">
         <v>5.268120449567762</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>3.232</v>
       </c>
-      <c r="F8" t="n">
-        <v>2.036120449567762</v>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>6.271678887145197</v>
       </c>
     </row>
     <row r="9">
@@ -544,13 +582,17 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
+        <v>1.255965408022047</v>
+      </c>
+      <c r="E9" t="n">
         <v>5.260866388526964</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.349</v>
       </c>
-      <c r="F9" t="n">
-        <v>1.911866388526964</v>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>6.271678887145197</v>
       </c>
     </row>
     <row r="10">
@@ -564,13 +606,17 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
+        <v>1.286243006253022</v>
+      </c>
+      <c r="E10" t="n">
         <v>5.238918301141971</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.4205</v>
       </c>
-      <c r="F10" t="n">
-        <v>1.818418301141971</v>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>6.271678887145197</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area3.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area3.xlsx
@@ -408,23 +408,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3634610188657926</v>
+        <v>0.3646489200594908</v>
       </c>
       <c r="E2" t="n">
-        <v>6.007579774263109</v>
+        <v>6.143895547706342</v>
       </c>
       <c r="F2" t="n">
-        <v>0.872</v>
+        <v>0.8832</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>6.271678887145197</v>
+        <v>6.423239529546289</v>
       </c>
     </row>
     <row r="3">
@@ -432,23 +432,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7088661882899594</v>
+        <v>0.7034468968829464</v>
       </c>
       <c r="E3" t="n">
-        <v>5.647059265271208</v>
+        <v>5.790383126219522</v>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>1.6785</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>6.271678887145197</v>
+        <v>6.423239529546289</v>
       </c>
     </row>
     <row r="4">
@@ -456,23 +456,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9636897536187901</v>
+        <v>0.9685449757105207</v>
       </c>
       <c r="E4" t="n">
-        <v>5.436032013309045</v>
+        <v>5.585202231743557</v>
       </c>
       <c r="F4" t="n">
-        <v>1.946</v>
+        <v>2.1185</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>6.271678887145197</v>
+        <v>6.423239529546289</v>
       </c>
     </row>
     <row r="5">
@@ -480,23 +480,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.116632997595095</v>
+        <v>1.13743123501128</v>
       </c>
       <c r="E5" t="n">
-        <v>5.325288225573662</v>
+        <v>5.468366089922898</v>
       </c>
       <c r="F5" t="n">
-        <v>2.471</v>
+        <v>2.6534</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>6.271678887145197</v>
+        <v>6.423239529546289</v>
       </c>
     </row>
     <row r="6">
@@ -504,23 +504,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.175168753280896</v>
+        <v>1.201221854365843</v>
       </c>
       <c r="E6" t="n">
-        <v>5.282569863103799</v>
+        <v>5.426089715626122</v>
       </c>
       <c r="F6" t="n">
-        <v>2.799</v>
+        <v>2.9961</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>6.271678887145197</v>
+        <v>6.423239529546289</v>
       </c>
     </row>
     <row r="7">
@@ -528,23 +528,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.200872345810631</v>
+        <v>1.233482886920558</v>
       </c>
       <c r="E7" t="n">
-        <v>5.283611792198738</v>
+        <v>5.436908337885208</v>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>3.3062</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>6.271678887145197</v>
+        <v>6.423239529546289</v>
       </c>
     </row>
     <row r="8">
@@ -552,23 +552,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.233435112180008</v>
+        <v>1.268277853131055</v>
       </c>
       <c r="E8" t="n">
-        <v>5.268120449567762</v>
+        <v>5.420993439048613</v>
       </c>
       <c r="F8" t="n">
-        <v>3.232</v>
+        <v>3.4356</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>6.271678887145197</v>
+        <v>6.423239529546289</v>
       </c>
     </row>
     <row r="9">
@@ -576,23 +576,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1.255965408022047</v>
+        <v>1.290522950475432</v>
       </c>
       <c r="E9" t="n">
-        <v>5.260866388526964</v>
+        <v>5.410628427984358</v>
       </c>
       <c r="F9" t="n">
-        <v>3.349</v>
+        <v>3.578</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>6.271678887145197</v>
+        <v>6.423239529546289</v>
       </c>
     </row>
     <row r="10">
@@ -600,23 +600,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>1.286243006253022</v>
+        <v>1.316234812580474</v>
       </c>
       <c r="E10" t="n">
-        <v>5.238918301141971</v>
+        <v>5.38875204158206</v>
       </c>
       <c r="F10" t="n">
-        <v>3.4205</v>
+        <v>3.6839</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>6.271678887145197</v>
+        <v>6.423239529546289</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area3.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area3.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3646489200594908</v>
+        <v>0.3645901875440227</v>
       </c>
       <c r="E2" t="n">
         <v>6.143895547706342</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7034468968829464</v>
+        <v>0.7033609537618921</v>
       </c>
       <c r="E3" t="n">
         <v>5.790383126219522</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9685449757105207</v>
+        <v>0.9684102164150301</v>
       </c>
       <c r="E4" t="n">
         <v>5.585202231743557</v>
@@ -486,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.13743123501128</v>
+        <v>1.137078678494454</v>
       </c>
       <c r="E5" t="n">
         <v>5.468366089922898</v>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.201221854365843</v>
+        <v>1.200813683798334</v>
       </c>
       <c r="E6" t="n">
         <v>5.426089715626122</v>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.233482886920558</v>
+        <v>1.232985010725713</v>
       </c>
       <c r="E7" t="n">
         <v>5.436908337885208</v>
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>1.268277853131055</v>
+        <v>1.267839058375256</v>
       </c>
       <c r="E8" t="n">
         <v>5.420993439048613</v>
@@ -582,7 +582,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>1.290522950475432</v>
+        <v>1.290072560080769</v>
       </c>
       <c r="E9" t="n">
         <v>5.410628427984358</v>
@@ -606,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>1.316234812580474</v>
+        <v>1.315781970594142</v>
       </c>
       <c r="E10" t="n">
         <v>5.38875204158206</v>

--- a/_RESULTS/Error_budget/error_budget_area3.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area3.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,126 +499,6 @@
         <v>6.423239529546289</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>110000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.200813683798334</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.426089715626122</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.9961</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>6.423239529546289</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>110000</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.232985010725713</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.436908337885208</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.3062</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>6.423239529546289</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>110000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.267839058375256</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.420993439048613</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.4356</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>6.423239529546289</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>110000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.290072560080769</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.410628427984358</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.578</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>6.423239529546289</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>110000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.315781970594142</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.38875204158206</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.6839</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>6.423239529546289</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/_RESULTS/Error_budget/error_budget_area3.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area3.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,23 +408,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3645901875440227</v>
+        <v>0.3803303190246927</v>
       </c>
       <c r="E2" t="n">
-        <v>6.143895547706342</v>
+        <v>3.602579562328429</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8832</v>
+        <v>0.7518</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>6.423239529546289</v>
+        <v>3.748694078222786</v>
       </c>
     </row>
     <row r="3">
@@ -432,71 +432,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>110000</v>
+        <v>75000</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7033609537618921</v>
+        <v>0.6900868030522065</v>
       </c>
       <c r="E3" t="n">
-        <v>5.790383126219522</v>
+        <v>3.363668530993691</v>
       </c>
       <c r="F3" t="n">
-        <v>1.6785</v>
+        <v>1.3849</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>6.423239529546289</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>110000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9684102164150301</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5.585202231743557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.1185</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>6.423239529546289</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>110000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.137078678494454</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.468366089922898</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.6534</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>6.423239529546289</v>
+        <v>3.748694078222786</v>
       </c>
     </row>
   </sheetData>

--- a/_RESULTS/Error_budget/error_budget_area3.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area3.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3803303190246927</v>
+        <v>0.3805977341419248</v>
       </c>
       <c r="E2" t="n">
         <v>3.602579562328429</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6900868030522065</v>
+        <v>0.6904729265728722</v>
       </c>
       <c r="E3" t="n">
         <v>3.363668530993691</v>
